--- a/Schedule(AutoRecovered).xlsx
+++ b/Schedule(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackjin/Desktop/General_Information(HCSC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ABC3A9-2F86-224E-AE7E-69B9A889A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36874B53-9965-6F45-95EE-7E12E2730D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{3FBB0D40-6773-1F4A-9A3F-145880EFED3D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{3FBB0D40-6773-1F4A-9A3F-145880EFED3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scripting" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
   <si>
     <t>Week 1</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Make Assets for Game Jam</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -875,9 +878,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B390614-B0E3-244A-BF8F-033AD80BBB53}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -891,7 +894,7 @@
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>50</v>
@@ -899,7 +902,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -911,7 +914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
@@ -921,7 +924,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
@@ -933,7 +936,7 @@
       </c>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
@@ -947,7 +950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
@@ -959,7 +962,7 @@
       </c>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -971,7 +974,7 @@
       </c>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
@@ -983,7 +986,7 @@
       </c>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
@@ -995,7 +998,7 @@
       </c>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1010,7 @@
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1034,7 @@
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>9</v>
       </c>
@@ -1042,8 +1045,11 @@
         <v>48</v>
       </c>
       <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1059,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +1069,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>12</v>
       </c>
@@ -1225,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802DDEDA-82B3-124A-93C3-FD474574FCC6}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C01051-A7E7-174B-A5FF-4441F6E9E1C6}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
